--- a/biology/Botanique/Badhamia/Badhamia.xlsx
+++ b/biology/Botanique/Badhamia/Badhamia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Badhamia est un genre de Mycétozoaires (anciennement les Myxomycètes) de la famille des Physaraceae. Cosmopolite, ce genre est caractérisé par ses spores agglutinées en amas (nommés « badhamoïdes ») et une couche interne du sporangium composée de tubules calcaires uniformes.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Décrit pour la première fois en 1853 par le botaniste et mycologue britannique Miles Joseph Berkeley, le genre Badhamia a pour espèce type Badhamia capsulifera.
 Ses formes végétatives sont des plasmodium.
-Ses fructifications sont des sporangium sans pédoncules (ou exceptionnellement). La couche externe (le péridium) est mince ; la présence de nodules calcaires variant de nulle à fortement incrusté. La couche interne (le capillitium) est formée par un réseau de tubules calcaires parallèles garnis de peu à de nombreux nœuds à peine reliés entre eux. Le pied (stipe), lorsqu'il est présent, varie de très court à robuste. La tige à l'intérieur du sporangium (la columella) est absente. Les spores noires sont agglutinées ou libres[2].
-La définition originelle de Berkeley est plus précise. Elle se limite aux espèces ayant des spores regroupées en amas caractéristiques nommés « badhamoïdes ». Sur les six espèces alors reconnues par Berkeley, trois, B. capsulifera, B. utricularis et B. nitens, mais aussi B. versicolor, B. papaveracea et B. populina, constituent un groupe générique cohérent. Parmi les espèces restantes, certains spécimens ont un capillitium badhamioïde typique, tandis qu'il est très irrégulier chez d'autres spécimens d'une même espèce, avec en plus des spores libres. Ces derniers spécimens étant alors proche du genre Physarum, la question de leur transfert s'est posée. Après examen dans les années 1970, les espèces typiques de Badhamia doivent combiner des spores agglutinées avec un capillitium uniformément tubulaire[2]. 
+Ses fructifications sont des sporangium sans pédoncules (ou exceptionnellement). La couche externe (le péridium) est mince ; la présence de nodules calcaires variant de nulle à fortement incrusté. La couche interne (le capillitium) est formée par un réseau de tubules calcaires parallèles garnis de peu à de nombreux nœuds à peine reliés entre eux. Le pied (stipe), lorsqu'il est présent, varie de très court à robuste. La tige à l'intérieur du sporangium (la columella) est absente. Les spores noires sont agglutinées ou libres.
+La définition originelle de Berkeley est plus précise. Elle se limite aux espèces ayant des spores regroupées en amas caractéristiques nommés « badhamoïdes ». Sur les six espèces alors reconnues par Berkeley, trois, B. capsulifera, B. utricularis et B. nitens, mais aussi B. versicolor, B. papaveracea et B. populina, constituent un groupe générique cohérent. Parmi les espèces restantes, certains spécimens ont un capillitium badhamioïde typique, tandis qu'il est très irrégulier chez d'autres spécimens d'une même espèce, avec en plus des spores libres. Ces derniers spécimens étant alors proche du genre Physarum, la question de leur transfert s'est posée. Après examen dans les années 1970, les espèces typiques de Badhamia doivent combiner des spores agglutinées avec un capillitium uniformément tubulaire. 
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Badhamia est présent dans le monde entier. L'espèce la plus commune est Badhamia affinis[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Badhamia est présent dans le monde entier. L'espèce la plus commune est Badhamia affinis. 
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Ensemble des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sont regroupées ici l'ensemble des espèces reconnues selon Index Fungorum[3] (sauf exceptions). Les espèces annotées d'un « F » sont présentes en France métropolitaine  selon l'INPN.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sont regroupées ici l'ensemble des espèces reconnues selon Index Fungorum (sauf exceptions). Les espèces annotées d'un « F » sont présentes en France métropolitaine  selon l'INPN.
 Badhamia affinis (F)
 Badhamia apiculospora
 Badhamia bibasilis
@@ -593,13 +611,13 @@
 Badhamia dubia (F)
 Badhamia flavoglauca
 Badhamia foliicola (F)
-Badhamia goniospora[4]  (F)
+Badhamia goniospora  (F)
 Badhamia grandispora
 Badhamia lilacina (F)
 Badhamia macrospora
 Badhamia melanospora (F)
 Badhamia nitens (F)
-Badhamia ovispora[5] (F)
+Badhamia ovispora (F)
 Badhamia grandispora
 Badhamia panicea (F)
 Badhamia populina (F)
